--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>887324.5</v>
+        <v>1054500.78</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126760.64</v>
+        <v>87875.07000000001</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181568.03</v>
+        <v>66305.12</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>480657.67</v>
+        <v>379164.2</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94582.00999999999</v>
+        <v>95586.11</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43675.19</v>
+        <v>42696.7</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4827.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78023.7</v>
+        <v>76822.37</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,57 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3990.45</v>
+        <v>4026.31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2444.92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Delta Recursos</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>226412.52</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2621.53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5118.43</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>153302.57</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,145 +439,192 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054500.78</v>
+        <v>66305.12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>66310.58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87875.07000000001</v>
+        <v>379164.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>380068.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66305.12</v>
+        <v>5118.43</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5069.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Delta Recursos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>379164.2</v>
+        <v>226412.52</v>
+      </c>
+      <c r="C5" t="n">
+        <v>227152.92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95586.11</v>
+        <v>2621.53</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2476.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42696.7</v>
+        <v>2444.92</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2273.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>95586.11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>94080.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76822.37</v>
+        <v>42696.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43792.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4026.31</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2444.92</v>
+        <v>76822.37</v>
+      </c>
+      <c r="C11" t="n">
+        <v>77173</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>226412.52</v>
+        <v>153302.57</v>
+      </c>
+      <c r="C12" t="n">
+        <v>152776.93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2621.53</v>
+        <v>4026.31</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3930.93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5118.43</v>
+        <v>87875.07000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>87925.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>153302.57</v>
+        <v>1054500.78</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1055105.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,155 +439,205 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1141443.82</v>
+        <v>66310.58</v>
+      </c>
+      <c r="C2" t="n">
+        <v>66612.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87803.37</v>
+        <v>380068.65</v>
+      </c>
+      <c r="C3" t="n">
+        <v>378929.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66310.58</v>
+        <v>86338.23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>86191.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380068.65</v>
+        <v>5069.15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5104.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86338.23</v>
+        <v>2273.61</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2148.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Delta Recursos Naturales</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5069.15</v>
+        <v>227152.92</v>
+      </c>
+      <c r="C7" t="n">
+        <v>226257.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2273.61</v>
+        <v>2476.34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2877.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Delta Recursos Naturales</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>227152.92</v>
+        <v>94080.63</v>
+      </c>
+      <c r="C9" t="n">
+        <v>95068.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2476.34</v>
+        <v>43792.85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43890.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94080.63</v>
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43792.85</v>
+        <v>77173</v>
+      </c>
+      <c r="C12" t="n">
+        <v>76472.61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152776.93</v>
+      </c>
+      <c r="C13" t="n">
+        <v>156377.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77173</v>
+        <v>3930.93</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4090.78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>152776.93</v>
+        <v>87803.37</v>
+      </c>
+      <c r="C15" t="n">
+        <v>88001.66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3930.93</v>
+        <v>1141443.82</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1144021.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -506,9 +506,7 @@
       <c r="B6" t="n">
         <v>2273.61</v>
       </c>
-      <c r="C6" t="n">
-        <v>2148.14</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -519,9 +517,7 @@
       <c r="B7" t="n">
         <v>227152.92</v>
       </c>
-      <c r="C7" t="n">
-        <v>226257.5</v>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -532,9 +528,7 @@
       <c r="B8" t="n">
         <v>2476.34</v>
       </c>
-      <c r="C8" t="n">
-        <v>2877.33</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -545,9 +539,7 @@
       <c r="B9" t="n">
         <v>94080.63</v>
       </c>
-      <c r="C9" t="n">
-        <v>95068.33</v>
-      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -624,7 +616,7 @@
         <v>87803.37</v>
       </c>
       <c r="C15" t="n">
-        <v>88001.66</v>
+        <v>90852.25999999999</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +629,7 @@
         <v>1141443.82</v>
       </c>
       <c r="C16" t="n">
-        <v>1144021.62</v>
+        <v>817670.3199999999</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66310.58</v>
+        <v>67163.44</v>
       </c>
       <c r="C2" t="n">
-        <v>66612.98</v>
+        <v>66370.36</v>
       </c>
       <c r="D2" t="n">
-        <v>66786.24000000001</v>
+        <v>66415.08</v>
       </c>
       <c r="E2" t="n">
-        <v>66541.41</v>
+        <v>66954.08</v>
       </c>
       <c r="F2" t="n">
-        <v>66953.53</v>
+        <v>66968.17999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>66767.23</v>
-      </c>
-      <c r="H2" t="n">
-        <v>66533.88</v>
-      </c>
-      <c r="I2" t="n">
-        <v>66157.52</v>
-      </c>
-      <c r="J2" t="n">
-        <v>66529.39</v>
-      </c>
-      <c r="K2" t="n">
-        <v>66324.53999999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>67128.39999999999</v>
-      </c>
-      <c r="M2" t="n">
-        <v>67163.44</v>
+        <v>66464.97</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380068.65</v>
+        <v>284578.56</v>
       </c>
       <c r="C3" t="n">
-        <v>378929.83</v>
+        <v>283262.48</v>
       </c>
       <c r="D3" t="n">
-        <v>378941.76</v>
+        <v>282324.08</v>
       </c>
       <c r="E3" t="n">
-        <v>380072.65</v>
+        <v>283637.67</v>
       </c>
       <c r="F3" t="n">
-        <v>379282.26</v>
+        <v>284004.66</v>
       </c>
       <c r="G3" t="n">
-        <v>380642.24</v>
-      </c>
-      <c r="H3" t="n">
-        <v>379489.78</v>
-      </c>
-      <c r="I3" t="n">
-        <v>379889.42</v>
-      </c>
-      <c r="J3" t="n">
-        <v>380616.28</v>
-      </c>
-      <c r="K3" t="n">
-        <v>378741.67</v>
-      </c>
-      <c r="L3" t="n">
-        <v>284347.38</v>
-      </c>
-      <c r="M3" t="n">
-        <v>284578.56</v>
+        <v>284176.14</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86338.23</v>
+        <v>86472.42</v>
       </c>
       <c r="C4" t="n">
-        <v>86191.5</v>
+        <v>86028.42999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>86455.14</v>
+        <v>85829.12</v>
       </c>
       <c r="E4" t="n">
-        <v>86025.00999999999</v>
+        <v>85920.00999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>86172.39999999999</v>
+        <v>86492.69</v>
       </c>
       <c r="G4" t="n">
-        <v>86045.23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>86511.42</v>
-      </c>
-      <c r="I4" t="n">
-        <v>86071.14999999999</v>
-      </c>
-      <c r="J4" t="n">
-        <v>86185.49000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>86092.92999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>86071.36</v>
-      </c>
-      <c r="M4" t="n">
-        <v>86472.42</v>
+        <v>86385.41</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5069.15</v>
+        <v>5136.81</v>
       </c>
       <c r="C5" t="n">
-        <v>5104.76</v>
+        <v>5136.45</v>
       </c>
       <c r="D5" t="n">
-        <v>5146.41</v>
+        <v>5095.99</v>
       </c>
       <c r="E5" t="n">
-        <v>5079.12</v>
+        <v>5089.81</v>
       </c>
       <c r="F5" t="n">
-        <v>5067.72</v>
+        <v>5172.94</v>
       </c>
       <c r="G5" t="n">
-        <v>5179.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5132.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5054.77</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5081.91</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5145.6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5116.35</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5136.81</v>
+        <v>5149.09</v>
       </c>
     </row>
     <row r="6">
@@ -674,38 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2273.61</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>2503.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2071.13</v>
+      </c>
       <c r="D6" t="n">
-        <v>2562.29</v>
+        <v>2143.82</v>
       </c>
       <c r="E6" t="n">
-        <v>2419.71</v>
+        <v>2152.22</v>
       </c>
       <c r="F6" t="n">
-        <v>2363.74</v>
+        <v>2135.68</v>
       </c>
       <c r="G6" t="n">
-        <v>2388.51</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2453.55</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2438.24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2533.62</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2129.52</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2554.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2503.1</v>
+        <v>2573.39</v>
       </c>
     </row>
     <row r="7">
@@ -715,38 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227152.92</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>227127.84</v>
+      </c>
+      <c r="C7" t="n">
+        <v>226857.93</v>
+      </c>
       <c r="D7" t="n">
-        <v>227107.52</v>
+        <v>225614.8</v>
       </c>
       <c r="E7" t="n">
-        <v>227127.82</v>
+        <v>227015.64</v>
       </c>
       <c r="F7" t="n">
-        <v>226540.75</v>
+        <v>227005.02</v>
       </c>
       <c r="G7" t="n">
-        <v>226823.64</v>
-      </c>
-      <c r="H7" t="n">
-        <v>226460.26</v>
-      </c>
-      <c r="I7" t="n">
-        <v>227306.75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>226837.17</v>
-      </c>
-      <c r="K7" t="n">
-        <v>227153.35</v>
-      </c>
-      <c r="L7" t="n">
-        <v>226557</v>
-      </c>
-      <c r="M7" t="n">
-        <v>227127.84</v>
+        <v>226948.22</v>
       </c>
     </row>
     <row r="8">
@@ -756,38 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.34</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>2540.29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2667.52</v>
+      </c>
       <c r="D8" t="n">
-        <v>2800.97</v>
+        <v>2751.99</v>
       </c>
       <c r="E8" t="n">
-        <v>2620.01</v>
+        <v>2783.95</v>
       </c>
       <c r="F8" t="n">
-        <v>2505.85</v>
+        <v>2759.67</v>
       </c>
       <c r="G8" t="n">
-        <v>2497.47</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2566.32</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2562.19</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2599.23</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2700.61</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2582.93</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2540.29</v>
+        <v>2651.65</v>
       </c>
     </row>
     <row r="9">
@@ -797,38 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94080.63</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>110810.79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>112875.72</v>
+      </c>
       <c r="D9" t="n">
-        <v>100391.34</v>
+        <v>111545.96</v>
       </c>
       <c r="E9" t="n">
-        <v>101932.84</v>
+        <v>121880.52</v>
       </c>
       <c r="F9" t="n">
-        <v>102838.63</v>
+        <v>137400.88</v>
       </c>
       <c r="G9" t="n">
-        <v>110954.58</v>
-      </c>
-      <c r="H9" t="n">
-        <v>112327.93</v>
-      </c>
-      <c r="I9" t="n">
-        <v>111112.04</v>
-      </c>
-      <c r="J9" t="n">
-        <v>112648.59</v>
-      </c>
-      <c r="K9" t="n">
-        <v>110614.21</v>
-      </c>
-      <c r="L9" t="n">
-        <v>111698.35</v>
-      </c>
-      <c r="M9" t="n">
-        <v>110810.79</v>
+        <v>148053.9</v>
       </c>
     </row>
     <row r="10">
@@ -838,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43792.85</v>
+        <v>43824.29</v>
       </c>
       <c r="C10" t="n">
-        <v>43890.4</v>
+        <v>44072.96</v>
       </c>
       <c r="D10" t="n">
-        <v>42873.52</v>
+        <v>43673.92</v>
       </c>
       <c r="E10" t="n">
-        <v>42989.77</v>
+        <v>43772.57</v>
       </c>
       <c r="F10" t="n">
-        <v>43834.81</v>
+        <v>43567.8</v>
       </c>
       <c r="G10" t="n">
-        <v>43186</v>
-      </c>
-      <c r="H10" t="n">
-        <v>43995.24</v>
-      </c>
-      <c r="I10" t="n">
-        <v>42785.27</v>
-      </c>
-      <c r="J10" t="n">
-        <v>43704.72</v>
-      </c>
-      <c r="K10" t="n">
-        <v>43628.46</v>
-      </c>
-      <c r="L10" t="n">
-        <v>44081.83</v>
-      </c>
-      <c r="M10" t="n">
-        <v>43824.29</v>
+        <v>42821.1</v>
       </c>
     </row>
     <row r="11">
@@ -881,40 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>650.34</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>651.9</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>679.41</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>681.28</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>668.6900000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>756.38</v>
-      </c>
-      <c r="J11" t="n">
-        <v>742.22</v>
-      </c>
-      <c r="K11" t="n">
-        <v>748.73</v>
-      </c>
-      <c r="L11" t="n">
-        <v>661.4400000000001</v>
-      </c>
-      <c r="M11" t="n">
-        <v>650.34</v>
+        <v>615.23</v>
       </c>
     </row>
     <row r="12">
@@ -924,194 +722,97 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77173</v>
+        <v>62409.74</v>
       </c>
       <c r="C12" t="n">
-        <v>76472.61</v>
+        <v>61634.91</v>
       </c>
       <c r="D12" t="n">
-        <v>77433.5</v>
+        <v>61353.68</v>
       </c>
       <c r="E12" t="n">
-        <v>77551.84</v>
+        <v>62592.9</v>
       </c>
       <c r="F12" t="n">
-        <v>77340.64999999999</v>
+        <v>61651.69</v>
       </c>
       <c r="G12" t="n">
-        <v>77219.25</v>
-      </c>
-      <c r="H12" t="n">
-        <v>77331.94</v>
-      </c>
-      <c r="I12" t="n">
-        <v>76689.94</v>
-      </c>
-      <c r="J12" t="n">
-        <v>77154.67999999999</v>
-      </c>
-      <c r="K12" t="n">
-        <v>77119.42999999999</v>
-      </c>
-      <c r="L12" t="n">
-        <v>62342.55</v>
-      </c>
-      <c r="M12" t="n">
-        <v>62409.74</v>
+        <v>61938.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152776.93</v>
+        <v>4025.81</v>
       </c>
       <c r="C13" t="n">
-        <v>156377.46</v>
+        <v>3898.32</v>
       </c>
       <c r="D13" t="n">
-        <v>153415.74</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+        <v>4031.14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3856.27</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3841.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4055.93</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3930.93</v>
+        <v>74770.28999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>4090.78</v>
+        <v>74627.34</v>
       </c>
       <c r="D14" t="n">
-        <v>4082.67</v>
+        <v>74288.25</v>
       </c>
       <c r="E14" t="n">
-        <v>3953.03</v>
+        <v>75528.08</v>
       </c>
       <c r="F14" t="n">
-        <v>3863.25</v>
+        <v>76805.78</v>
       </c>
       <c r="G14" t="n">
-        <v>3966.38</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4084.57</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4094.26</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3848.85</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3982.2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4088.07</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4025.81</v>
+        <v>77652.83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87803.37</v>
+        <v>897243.4300000001</v>
       </c>
       <c r="C15" t="n">
-        <v>90852.25999999999</v>
+        <v>895528.11</v>
       </c>
       <c r="D15" t="n">
-        <v>88307.47</v>
+        <v>891458.99</v>
       </c>
       <c r="E15" t="n">
-        <v>83026.10000000001</v>
+        <v>906336.92</v>
       </c>
       <c r="F15" t="n">
-        <v>83063.63</v>
+        <v>921669.4</v>
       </c>
       <c r="G15" t="n">
-        <v>83805.84</v>
-      </c>
-      <c r="H15" t="n">
-        <v>83907.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>83743.16</v>
-      </c>
-      <c r="J15" t="n">
-        <v>84040.17999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>83698.44</v>
-      </c>
-      <c r="L15" t="n">
-        <v>74769.14999999999</v>
-      </c>
-      <c r="M15" t="n">
-        <v>74770.28999999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1141443.82</v>
-      </c>
-      <c r="C16" t="n">
-        <v>817670.3199999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1147997.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>996313.21</v>
-      </c>
-      <c r="F16" t="n">
-        <v>996763.59</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1005670.03</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1006887.64</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1004917.93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1008482.15</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1004381.25</v>
-      </c>
-      <c r="L16" t="n">
-        <v>897229.86</v>
-      </c>
-      <c r="M16" t="n">
-        <v>897243.4300000001</v>
+        <v>931833.9300000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>66310.58</v>
+      </c>
+      <c r="C2" t="n">
+        <v>66612.98</v>
+      </c>
+      <c r="D2" t="n">
+        <v>66786.24000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>66541.41</v>
+      </c>
+      <c r="F2" t="n">
+        <v>66953.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>66767.23</v>
+      </c>
+      <c r="H2" t="n">
+        <v>66533.88</v>
+      </c>
+      <c r="I2" t="n">
+        <v>66157.52</v>
+      </c>
+      <c r="J2" t="n">
+        <v>66529.39</v>
+      </c>
+      <c r="K2" t="n">
+        <v>66324.53999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>67128.39999999999</v>
+      </c>
+      <c r="M2" t="n">
         <v>67163.44</v>
-      </c>
-      <c r="C2" t="n">
-        <v>66370.36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>66415.08</v>
-      </c>
-      <c r="E2" t="n">
-        <v>66954.08</v>
-      </c>
-      <c r="F2" t="n">
-        <v>66968.17999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>66464.97</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>380068.65</v>
+      </c>
+      <c r="C3" t="n">
+        <v>378929.83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>378941.76</v>
+      </c>
+      <c r="E3" t="n">
+        <v>380072.65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>379282.26</v>
+      </c>
+      <c r="G3" t="n">
+        <v>380642.24</v>
+      </c>
+      <c r="H3" t="n">
+        <v>379489.78</v>
+      </c>
+      <c r="I3" t="n">
+        <v>379889.42</v>
+      </c>
+      <c r="J3" t="n">
+        <v>380616.28</v>
+      </c>
+      <c r="K3" t="n">
+        <v>378741.67</v>
+      </c>
+      <c r="L3" t="n">
+        <v>284347.38</v>
+      </c>
+      <c r="M3" t="n">
         <v>284578.56</v>
-      </c>
-      <c r="C3" t="n">
-        <v>283262.48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>282324.08</v>
-      </c>
-      <c r="E3" t="n">
-        <v>283637.67</v>
-      </c>
-      <c r="F3" t="n">
-        <v>284004.66</v>
-      </c>
-      <c r="G3" t="n">
-        <v>284176.14</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>86338.23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>86191.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>86455.14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>86025.00999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>86172.39999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>86045.23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>86511.42</v>
+      </c>
+      <c r="I4" t="n">
+        <v>86071.14999999999</v>
+      </c>
+      <c r="J4" t="n">
+        <v>86185.49000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>86092.92999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>86071.36</v>
+      </c>
+      <c r="M4" t="n">
         <v>86472.42</v>
-      </c>
-      <c r="C4" t="n">
-        <v>86028.42999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>85829.12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>85920.00999999999</v>
-      </c>
-      <c r="F4" t="n">
-        <v>86492.69</v>
-      </c>
-      <c r="G4" t="n">
-        <v>86385.41</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>5069.15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5104.76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5146.41</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5079.12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5067.72</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5179.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5132.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5054.77</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5081.91</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5145.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5116.35</v>
+      </c>
+      <c r="M5" t="n">
         <v>5136.81</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5136.45</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5095.99</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5089.81</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5172.94</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5149.09</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,38 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>2273.61</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>2562.29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2419.71</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2363.74</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2388.51</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2453.55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2438.24</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2533.62</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2129.52</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2554.2</v>
+      </c>
+      <c r="M6" t="n">
         <v>2503.1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2071.13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2143.82</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2152.22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2135.68</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2573.39</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +715,38 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>227152.92</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>227107.52</v>
+      </c>
+      <c r="E7" t="n">
+        <v>227127.82</v>
+      </c>
+      <c r="F7" t="n">
+        <v>226540.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>226823.64</v>
+      </c>
+      <c r="H7" t="n">
+        <v>226460.26</v>
+      </c>
+      <c r="I7" t="n">
+        <v>227306.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>226837.17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>227153.35</v>
+      </c>
+      <c r="L7" t="n">
+        <v>226557</v>
+      </c>
+      <c r="M7" t="n">
         <v>227127.84</v>
-      </c>
-      <c r="C7" t="n">
-        <v>226857.93</v>
-      </c>
-      <c r="D7" t="n">
-        <v>225614.8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>227015.64</v>
-      </c>
-      <c r="F7" t="n">
-        <v>227005.02</v>
-      </c>
-      <c r="G7" t="n">
-        <v>226948.22</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +756,38 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>2476.34</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>2800.97</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2620.01</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2505.85</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2497.47</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2566.32</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2562.19</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2599.23</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2700.61</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2582.93</v>
+      </c>
+      <c r="M8" t="n">
         <v>2540.29</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2667.52</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2751.99</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2783.95</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2759.67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2651.65</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +797,38 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>94080.63</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>100391.34</v>
+      </c>
+      <c r="E9" t="n">
+        <v>101932.84</v>
+      </c>
+      <c r="F9" t="n">
+        <v>102838.63</v>
+      </c>
+      <c r="G9" t="n">
+        <v>110954.58</v>
+      </c>
+      <c r="H9" t="n">
+        <v>112327.93</v>
+      </c>
+      <c r="I9" t="n">
+        <v>111112.04</v>
+      </c>
+      <c r="J9" t="n">
+        <v>112648.59</v>
+      </c>
+      <c r="K9" t="n">
+        <v>110614.21</v>
+      </c>
+      <c r="L9" t="n">
+        <v>111698.35</v>
+      </c>
+      <c r="M9" t="n">
         <v>110810.79</v>
-      </c>
-      <c r="C9" t="n">
-        <v>112875.72</v>
-      </c>
-      <c r="D9" t="n">
-        <v>111545.96</v>
-      </c>
-      <c r="E9" t="n">
-        <v>121880.52</v>
-      </c>
-      <c r="F9" t="n">
-        <v>137400.88</v>
-      </c>
-      <c r="G9" t="n">
-        <v>148053.9</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +838,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>43792.85</v>
+      </c>
+      <c r="C10" t="n">
+        <v>43890.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>42873.52</v>
+      </c>
+      <c r="E10" t="n">
+        <v>42989.77</v>
+      </c>
+      <c r="F10" t="n">
+        <v>43834.81</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43186</v>
+      </c>
+      <c r="H10" t="n">
+        <v>43995.24</v>
+      </c>
+      <c r="I10" t="n">
+        <v>42785.27</v>
+      </c>
+      <c r="J10" t="n">
+        <v>43704.72</v>
+      </c>
+      <c r="K10" t="n">
+        <v>43628.46</v>
+      </c>
+      <c r="L10" t="n">
+        <v>44081.83</v>
+      </c>
+      <c r="M10" t="n">
         <v>43824.29</v>
-      </c>
-      <c r="C10" t="n">
-        <v>44072.96</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43673.92</v>
-      </c>
-      <c r="E10" t="n">
-        <v>43772.57</v>
-      </c>
-      <c r="F10" t="n">
-        <v>43567.8</v>
-      </c>
-      <c r="G10" t="n">
-        <v>42821.1</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +881,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>756.38</v>
+      </c>
+      <c r="J11" t="n">
+        <v>742.22</v>
+      </c>
+      <c r="K11" t="n">
+        <v>748.73</v>
+      </c>
+      <c r="L11" t="n">
+        <v>661.4400000000001</v>
+      </c>
+      <c r="M11" t="n">
         <v>650.34</v>
-      </c>
-      <c r="C11" t="n">
-        <v>651.9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>679.41</v>
-      </c>
-      <c r="E11" t="n">
-        <v>681.28</v>
-      </c>
-      <c r="F11" t="n">
-        <v>668.6900000000001</v>
-      </c>
-      <c r="G11" t="n">
-        <v>615.23</v>
       </c>
     </row>
     <row r="12">
@@ -722,97 +924,194 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>77173</v>
+      </c>
+      <c r="C12" t="n">
+        <v>76472.61</v>
+      </c>
+      <c r="D12" t="n">
+        <v>77433.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>77551.84</v>
+      </c>
+      <c r="F12" t="n">
+        <v>77340.64999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>77219.25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>77331.94</v>
+      </c>
+      <c r="I12" t="n">
+        <v>76689.94</v>
+      </c>
+      <c r="J12" t="n">
+        <v>77154.67999999999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>77119.42999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>62342.55</v>
+      </c>
+      <c r="M12" t="n">
         <v>62409.74</v>
-      </c>
-      <c r="C12" t="n">
-        <v>61634.91</v>
-      </c>
-      <c r="D12" t="n">
-        <v>61353.68</v>
-      </c>
-      <c r="E12" t="n">
-        <v>62592.9</v>
-      </c>
-      <c r="F12" t="n">
-        <v>61651.69</v>
-      </c>
-      <c r="G12" t="n">
-        <v>61938.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4025.81</v>
+        <v>152776.93</v>
       </c>
       <c r="C13" t="n">
-        <v>3898.32</v>
+        <v>156377.46</v>
       </c>
       <c r="D13" t="n">
-        <v>4031.14</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3856.27</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3841.5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4055.93</v>
-      </c>
+        <v>153415.74</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>74770.28999999999</v>
+        <v>3930.93</v>
       </c>
       <c r="C14" t="n">
-        <v>74627.34</v>
+        <v>4090.78</v>
       </c>
       <c r="D14" t="n">
-        <v>74288.25</v>
+        <v>4082.67</v>
       </c>
       <c r="E14" t="n">
-        <v>75528.08</v>
+        <v>3953.03</v>
       </c>
       <c r="F14" t="n">
-        <v>76805.78</v>
+        <v>3863.25</v>
       </c>
       <c r="G14" t="n">
-        <v>77652.83</v>
+        <v>3966.38</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4084.57</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4094.26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3848.85</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3982.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4088.07</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4025.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>87803.37</v>
+      </c>
+      <c r="C15" t="n">
+        <v>90852.25999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>88307.47</v>
+      </c>
+      <c r="E15" t="n">
+        <v>83026.10000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>83063.63</v>
+      </c>
+      <c r="G15" t="n">
+        <v>83805.84</v>
+      </c>
+      <c r="H15" t="n">
+        <v>83907.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>83743.16</v>
+      </c>
+      <c r="J15" t="n">
+        <v>84040.17999999999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>83698.44</v>
+      </c>
+      <c r="L15" t="n">
+        <v>74769.14999999999</v>
+      </c>
+      <c r="M15" t="n">
+        <v>74770.28999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
+        <v>1141443.82</v>
+      </c>
+      <c r="C16" t="n">
+        <v>817670.3199999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1147997.1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>996313.21</v>
+      </c>
+      <c r="F16" t="n">
+        <v>996763.59</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1005670.03</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1006887.64</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1004917.93</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1008482.15</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1004381.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>897229.86</v>
+      </c>
+      <c r="M16" t="n">
         <v>897243.4300000001</v>
-      </c>
-      <c r="C15" t="n">
-        <v>895528.11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>891458.99</v>
-      </c>
-      <c r="E15" t="n">
-        <v>906336.92</v>
-      </c>
-      <c r="F15" t="n">
-        <v>921669.4</v>
-      </c>
-      <c r="G15" t="n">
-        <v>931833.9300000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/DGCU2.xlsx
+++ b/backend/src/excel_handler/files/DGCU2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,102 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66310.58</v>
+        <v>67163.44</v>
       </c>
       <c r="C2" t="n">
-        <v>66612.98</v>
+        <v>66370.36</v>
       </c>
       <c r="D2" t="n">
-        <v>66786.24000000001</v>
+        <v>66415.08</v>
       </c>
       <c r="E2" t="n">
-        <v>66541.41</v>
+        <v>66954.08</v>
       </c>
       <c r="F2" t="n">
-        <v>66953.53</v>
+        <v>66968.17999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>66767.23</v>
+        <v>66464.97</v>
       </c>
       <c r="H2" t="n">
-        <v>66533.88</v>
+        <v>67076.00999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>66157.52</v>
+        <v>66235.52</v>
       </c>
       <c r="J2" t="n">
-        <v>66529.39</v>
+        <v>67009.42999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>66324.53999999999</v>
+        <v>66789.58</v>
       </c>
       <c r="L2" t="n">
-        <v>67128.39999999999</v>
+        <v>66787.50999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>67163.44</v>
+        <v>66247.73</v>
+      </c>
+      <c r="N2" t="n">
+        <v>66696.42</v>
+      </c>
+      <c r="O2" t="n">
+        <v>66605.22</v>
+      </c>
+      <c r="P2" t="n">
+        <v>67196.73</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>65890.86</v>
+      </c>
+      <c r="R2" t="n">
+        <v>67561.64999999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>65902.96000000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>66704.75999999999</v>
+      </c>
+      <c r="U2" t="n">
+        <v>66253.94</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380068.65</v>
+        <v>284578.56</v>
       </c>
       <c r="C3" t="n">
-        <v>378929.83</v>
+        <v>283262.48</v>
       </c>
       <c r="D3" t="n">
-        <v>378941.76</v>
+        <v>282324.08</v>
       </c>
       <c r="E3" t="n">
-        <v>380072.65</v>
+        <v>283637.67</v>
       </c>
       <c r="F3" t="n">
-        <v>379282.26</v>
+        <v>284004.66</v>
       </c>
       <c r="G3" t="n">
-        <v>380642.24</v>
+        <v>284176.14</v>
       </c>
       <c r="H3" t="n">
-        <v>379489.78</v>
+        <v>284096.82</v>
       </c>
       <c r="I3" t="n">
-        <v>379889.42</v>
+        <v>284392.85</v>
       </c>
       <c r="J3" t="n">
-        <v>380616.28</v>
+        <v>284042.79</v>
       </c>
       <c r="K3" t="n">
-        <v>378741.67</v>
+        <v>284371.79</v>
       </c>
       <c r="L3" t="n">
-        <v>284347.38</v>
+        <v>282894.2</v>
       </c>
       <c r="M3" t="n">
-        <v>284578.56</v>
+        <v>284075.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>284558.38</v>
+      </c>
+      <c r="O3" t="n">
+        <v>283737.68</v>
+      </c>
+      <c r="P3" t="n">
+        <v>283540.05</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>284326.43</v>
+      </c>
+      <c r="R3" t="n">
+        <v>283347.69</v>
+      </c>
+      <c r="S3" t="n">
+        <v>284686.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>284424.41</v>
+      </c>
+      <c r="U3" t="n">
+        <v>283744.31</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +676,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86338.23</v>
+        <v>86472.42</v>
       </c>
       <c r="C4" t="n">
-        <v>86191.5</v>
+        <v>86028.42999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>86455.14</v>
+        <v>85829.12</v>
       </c>
       <c r="E4" t="n">
-        <v>86025.00999999999</v>
+        <v>85920.00999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>86172.39999999999</v>
+        <v>86492.69</v>
       </c>
       <c r="G4" t="n">
-        <v>86045.23</v>
+        <v>86385.41</v>
       </c>
       <c r="H4" t="n">
-        <v>86511.42</v>
+        <v>85851.39</v>
       </c>
       <c r="I4" t="n">
-        <v>86071.14999999999</v>
+        <v>86234.14</v>
       </c>
       <c r="J4" t="n">
-        <v>86185.49000000001</v>
+        <v>86464.78</v>
       </c>
       <c r="K4" t="n">
-        <v>86092.92999999999</v>
+        <v>86452.14</v>
       </c>
       <c r="L4" t="n">
-        <v>86071.36</v>
+        <v>86535.53</v>
       </c>
       <c r="M4" t="n">
-        <v>86472.42</v>
+        <v>86140.39</v>
+      </c>
+      <c r="N4" t="n">
+        <v>86461.8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>86129.48</v>
+      </c>
+      <c r="P4" t="n">
+        <v>86004.11</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>85854.92</v>
+      </c>
+      <c r="R4" t="n">
+        <v>86548.08</v>
+      </c>
+      <c r="S4" t="n">
+        <v>86512.58</v>
+      </c>
+      <c r="T4" t="n">
+        <v>86456.67999999999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>85681.74000000001</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +743,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5069.15</v>
+        <v>5136.81</v>
       </c>
       <c r="C5" t="n">
-        <v>5104.76</v>
+        <v>5136.45</v>
       </c>
       <c r="D5" t="n">
-        <v>5146.41</v>
+        <v>5095.99</v>
       </c>
       <c r="E5" t="n">
-        <v>5079.12</v>
+        <v>5089.81</v>
       </c>
       <c r="F5" t="n">
-        <v>5067.72</v>
+        <v>5172.94</v>
       </c>
       <c r="G5" t="n">
-        <v>5179.5</v>
+        <v>5149.09</v>
       </c>
       <c r="H5" t="n">
-        <v>5132.75</v>
+        <v>5094.12</v>
       </c>
       <c r="I5" t="n">
-        <v>5054.77</v>
+        <v>5134.73</v>
       </c>
       <c r="J5" t="n">
-        <v>5081.91</v>
+        <v>5078.53</v>
       </c>
       <c r="K5" t="n">
-        <v>5145.6</v>
+        <v>5062.01</v>
       </c>
       <c r="L5" t="n">
-        <v>5116.35</v>
+        <v>5052.51</v>
       </c>
       <c r="M5" t="n">
-        <v>5136.81</v>
+        <v>5096.71</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5049.93</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5041.87</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5075.18</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5197.05</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5165.9</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5141.32</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5044.9</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5191.84</v>
       </c>
     </row>
     <row r="6">
@@ -674,38 +810,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2273.61</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>2503.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2071.13</v>
+      </c>
       <c r="D6" t="n">
-        <v>2562.29</v>
+        <v>2143.82</v>
       </c>
       <c r="E6" t="n">
-        <v>2419.71</v>
+        <v>2152.22</v>
       </c>
       <c r="F6" t="n">
-        <v>2363.74</v>
+        <v>2135.68</v>
       </c>
       <c r="G6" t="n">
-        <v>2388.51</v>
+        <v>2573.39</v>
       </c>
       <c r="H6" t="n">
-        <v>2453.55</v>
+        <v>2085.72</v>
       </c>
       <c r="I6" t="n">
-        <v>2438.24</v>
+        <v>2476.82</v>
       </c>
       <c r="J6" t="n">
-        <v>2533.62</v>
+        <v>2473.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2129.52</v>
+        <v>2109.94</v>
       </c>
       <c r="L6" t="n">
-        <v>2554.2</v>
+        <v>2111.15</v>
       </c>
       <c r="M6" t="n">
-        <v>2503.1</v>
+        <v>2070.64</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2181.74</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2145.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2051.43</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2178.25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2230.63</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2250.26</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2468.48</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2449.69</v>
       </c>
     </row>
     <row r="7">
@@ -715,38 +877,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227152.92</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>227127.84</v>
+      </c>
+      <c r="C7" t="n">
+        <v>226857.93</v>
+      </c>
       <c r="D7" t="n">
-        <v>227107.52</v>
+        <v>225614.8</v>
       </c>
       <c r="E7" t="n">
-        <v>227127.82</v>
+        <v>227015.64</v>
       </c>
       <c r="F7" t="n">
-        <v>226540.75</v>
+        <v>227005.02</v>
       </c>
       <c r="G7" t="n">
-        <v>226823.64</v>
+        <v>226948.22</v>
       </c>
       <c r="H7" t="n">
-        <v>226460.26</v>
+        <v>226811.12</v>
       </c>
       <c r="I7" t="n">
-        <v>227306.75</v>
+        <v>227292.67</v>
       </c>
       <c r="J7" t="n">
-        <v>226837.17</v>
+        <v>226342.85</v>
       </c>
       <c r="K7" t="n">
-        <v>227153.35</v>
+        <v>226616.25</v>
       </c>
       <c r="L7" t="n">
-        <v>226557</v>
+        <v>226184.89</v>
       </c>
       <c r="M7" t="n">
-        <v>227127.84</v>
+        <v>226364.17</v>
+      </c>
+      <c r="N7" t="n">
+        <v>227374.68</v>
+      </c>
+      <c r="O7" t="n">
+        <v>227022.54</v>
+      </c>
+      <c r="P7" t="n">
+        <v>226001.71</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>226795.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>226321.53</v>
+      </c>
+      <c r="S7" t="n">
+        <v>227490.65</v>
+      </c>
+      <c r="T7" t="n">
+        <v>226256.82</v>
+      </c>
+      <c r="U7" t="n">
+        <v>219167.8</v>
       </c>
     </row>
     <row r="8">
@@ -756,38 +944,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.34</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>2540.29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2667.52</v>
+      </c>
       <c r="D8" t="n">
-        <v>2800.97</v>
+        <v>2751.99</v>
       </c>
       <c r="E8" t="n">
-        <v>2620.01</v>
+        <v>2783.95</v>
       </c>
       <c r="F8" t="n">
-        <v>2505.85</v>
+        <v>2759.67</v>
       </c>
       <c r="G8" t="n">
-        <v>2497.47</v>
+        <v>2651.65</v>
       </c>
       <c r="H8" t="n">
-        <v>2566.32</v>
+        <v>2706.66</v>
       </c>
       <c r="I8" t="n">
-        <v>2562.19</v>
+        <v>2543.99</v>
       </c>
       <c r="J8" t="n">
-        <v>2599.23</v>
+        <v>2536.46</v>
       </c>
       <c r="K8" t="n">
-        <v>2700.61</v>
+        <v>2647.24</v>
       </c>
       <c r="L8" t="n">
-        <v>2582.93</v>
+        <v>2660.81</v>
       </c>
       <c r="M8" t="n">
-        <v>2540.29</v>
+        <v>2652.38</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2805.18</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2756.23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3232.56</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3369.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3337.38</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3149.88</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3405.21</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3265.65</v>
       </c>
     </row>
     <row r="9">
@@ -797,38 +1011,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94080.63</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>110810.79</v>
+      </c>
+      <c r="C9" t="n">
+        <v>112875.72</v>
+      </c>
       <c r="D9" t="n">
-        <v>100391.34</v>
+        <v>111545.96</v>
       </c>
       <c r="E9" t="n">
-        <v>101932.84</v>
+        <v>121880.52</v>
       </c>
       <c r="F9" t="n">
-        <v>102838.63</v>
+        <v>137400.88</v>
       </c>
       <c r="G9" t="n">
-        <v>110954.58</v>
+        <v>148053.9</v>
       </c>
       <c r="H9" t="n">
-        <v>112327.93</v>
+        <v>145892.43</v>
       </c>
       <c r="I9" t="n">
-        <v>111112.04</v>
+        <v>156101.37</v>
       </c>
       <c r="J9" t="n">
-        <v>112648.59</v>
+        <v>172526.73</v>
       </c>
       <c r="K9" t="n">
-        <v>110614.21</v>
+        <v>178330.46</v>
       </c>
       <c r="L9" t="n">
-        <v>111698.35</v>
+        <v>183032.8</v>
       </c>
       <c r="M9" t="n">
-        <v>110810.79</v>
+        <v>208739.85</v>
+      </c>
+      <c r="N9" t="n">
+        <v>209976.54</v>
+      </c>
+      <c r="O9" t="n">
+        <v>213387.13</v>
+      </c>
+      <c r="P9" t="n">
+        <v>244951.2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>251862.91</v>
+      </c>
+      <c r="R9" t="n">
+        <v>251264.77</v>
+      </c>
+      <c r="S9" t="n">
+        <v>260003.68</v>
+      </c>
+      <c r="T9" t="n">
+        <v>269620.97</v>
+      </c>
+      <c r="U9" t="n">
+        <v>271421.83</v>
       </c>
     </row>
     <row r="10">
@@ -838,40 +1078,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43792.85</v>
+        <v>43824.29</v>
       </c>
       <c r="C10" t="n">
-        <v>43890.4</v>
+        <v>44072.96</v>
       </c>
       <c r="D10" t="n">
-        <v>42873.52</v>
+        <v>43673.92</v>
       </c>
       <c r="E10" t="n">
-        <v>42989.77</v>
+        <v>43772.57</v>
       </c>
       <c r="F10" t="n">
-        <v>43834.81</v>
+        <v>43567.8</v>
       </c>
       <c r="G10" t="n">
-        <v>43186</v>
+        <v>42821.1</v>
       </c>
       <c r="H10" t="n">
-        <v>43995.24</v>
+        <v>42826.71</v>
       </c>
       <c r="I10" t="n">
-        <v>42785.27</v>
+        <v>53500.71</v>
       </c>
       <c r="J10" t="n">
-        <v>43704.72</v>
+        <v>52523.29</v>
       </c>
       <c r="K10" t="n">
-        <v>43628.46</v>
+        <v>53269.59</v>
       </c>
       <c r="L10" t="n">
-        <v>44081.83</v>
+        <v>52562.9</v>
       </c>
       <c r="M10" t="n">
-        <v>43824.29</v>
+        <v>53606.19</v>
+      </c>
+      <c r="N10" t="n">
+        <v>52636.91</v>
+      </c>
+      <c r="O10" t="n">
+        <v>53552.73</v>
+      </c>
+      <c r="P10" t="n">
+        <v>68982.00999999999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>69137.25999999999</v>
+      </c>
+      <c r="R10" t="n">
+        <v>68438.83</v>
+      </c>
+      <c r="S10" t="n">
+        <v>68342.17999999999</v>
+      </c>
+      <c r="T10" t="n">
+        <v>75080.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>74415.33</v>
       </c>
     </row>
     <row r="11">
@@ -881,40 +1145,64 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>650.34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>651.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>679.41</v>
+      </c>
+      <c r="E11" t="n">
+        <v>681.28</v>
+      </c>
+      <c r="F11" t="n">
+        <v>668.6900000000001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>615.23</v>
+      </c>
+      <c r="H11" t="n">
+        <v>623.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>590.14</v>
+      </c>
+      <c r="J11" t="n">
+        <v>588.39</v>
+      </c>
+      <c r="K11" t="n">
+        <v>626.16</v>
+      </c>
+      <c r="L11" t="n">
+        <v>639.11</v>
+      </c>
+      <c r="M11" t="n">
+        <v>653.47</v>
+      </c>
+      <c r="N11" t="n">
+        <v>727.55</v>
+      </c>
+      <c r="O11" t="n">
+        <v>730.35</v>
+      </c>
+      <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
+      <c r="R11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
+      <c r="S11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="T11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="U11" t="n">
         <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>756.38</v>
-      </c>
-      <c r="J11" t="n">
-        <v>742.22</v>
-      </c>
-      <c r="K11" t="n">
-        <v>748.73</v>
-      </c>
-      <c r="L11" t="n">
-        <v>661.4400000000001</v>
-      </c>
-      <c r="M11" t="n">
-        <v>650.34</v>
       </c>
     </row>
     <row r="12">
@@ -924,194 +1212,265 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77173</v>
+        <v>62409.74</v>
       </c>
       <c r="C12" t="n">
-        <v>76472.61</v>
+        <v>61634.91</v>
       </c>
       <c r="D12" t="n">
-        <v>77433.5</v>
+        <v>61353.68</v>
       </c>
       <c r="E12" t="n">
-        <v>77551.84</v>
+        <v>62592.9</v>
       </c>
       <c r="F12" t="n">
-        <v>77340.64999999999</v>
+        <v>61651.69</v>
       </c>
       <c r="G12" t="n">
-        <v>77219.25</v>
+        <v>61938.9</v>
       </c>
       <c r="H12" t="n">
-        <v>77331.94</v>
+        <v>62084.12</v>
       </c>
       <c r="I12" t="n">
-        <v>76689.94</v>
+        <v>62502.41</v>
       </c>
       <c r="J12" t="n">
-        <v>77154.67999999999</v>
+        <v>61905.94</v>
       </c>
       <c r="K12" t="n">
-        <v>77119.42999999999</v>
+        <v>62348.66</v>
       </c>
       <c r="L12" t="n">
-        <v>62342.55</v>
+        <v>61733.28</v>
       </c>
       <c r="M12" t="n">
-        <v>62409.74</v>
+        <v>62744.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>62413.81</v>
+      </c>
+      <c r="O12" t="n">
+        <v>62852.64</v>
+      </c>
+      <c r="P12" t="n">
+        <v>62484.3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>61855.37</v>
+      </c>
+      <c r="R12" t="n">
+        <v>61832.42</v>
+      </c>
+      <c r="S12" t="n">
+        <v>62461.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>62681.56</v>
+      </c>
+      <c r="U12" t="n">
+        <v>62164.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152776.93</v>
+        <v>4025.81</v>
       </c>
       <c r="C13" t="n">
-        <v>156377.46</v>
+        <v>3898.32</v>
       </c>
       <c r="D13" t="n">
-        <v>153415.74</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+        <v>4031.14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3856.27</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3841.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4055.93</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4086.39</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3887.28</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3875.15</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4061.94</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4137.93</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3857.62</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3868.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3886.6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4152.2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3864.95</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4096.01</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3890.81</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4099.6</v>
+      </c>
+      <c r="U13" t="n">
+        <v>3971.01</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3930.93</v>
+        <v>74770.28999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>4090.78</v>
+        <v>74627.34</v>
       </c>
       <c r="D14" t="n">
-        <v>4082.67</v>
+        <v>74288.25</v>
       </c>
       <c r="E14" t="n">
-        <v>3953.03</v>
+        <v>75528.08</v>
       </c>
       <c r="F14" t="n">
-        <v>3863.25</v>
+        <v>76805.78</v>
       </c>
       <c r="G14" t="n">
-        <v>3966.38</v>
+        <v>77652.83</v>
       </c>
       <c r="H14" t="n">
-        <v>4084.57</v>
+        <v>77436.25999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>4094.26</v>
+        <v>79241.05</v>
       </c>
       <c r="J14" t="n">
-        <v>3848.85</v>
+        <v>80447.32000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>3982.2</v>
+        <v>81057.14999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>4088.07</v>
+        <v>81194.38</v>
       </c>
       <c r="M14" t="n">
-        <v>4025.81</v>
+        <v>83520.74000000001</v>
+      </c>
+      <c r="N14" t="n">
+        <v>83729.25</v>
+      </c>
+      <c r="O14" t="n">
+        <v>83987.32000000001</v>
+      </c>
+      <c r="P14" t="n">
+        <v>87805.96000000001</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>88361.09</v>
+      </c>
+      <c r="R14" t="n">
+        <v>88345.41</v>
+      </c>
+      <c r="S14" t="n">
+        <v>89152.69</v>
+      </c>
+      <c r="T14" t="n">
+        <v>90520.3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>89810.63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>87803.37</v>
+        <v>897243.4300000001</v>
       </c>
       <c r="C15" t="n">
-        <v>90852.25999999999</v>
+        <v>895528.11</v>
       </c>
       <c r="D15" t="n">
-        <v>88307.47</v>
+        <v>891458.99</v>
       </c>
       <c r="E15" t="n">
-        <v>83026.10000000001</v>
+        <v>906336.92</v>
       </c>
       <c r="F15" t="n">
-        <v>83063.63</v>
+        <v>921669.4</v>
       </c>
       <c r="G15" t="n">
-        <v>83805.84</v>
+        <v>931833.9300000001</v>
       </c>
       <c r="H15" t="n">
-        <v>83907.3</v>
+        <v>929235.09</v>
       </c>
       <c r="I15" t="n">
-        <v>83743.16</v>
+        <v>950892.63</v>
       </c>
       <c r="J15" t="n">
-        <v>84040.17999999999</v>
+        <v>965367.84</v>
       </c>
       <c r="K15" t="n">
-        <v>83698.44</v>
+        <v>972685.76</v>
       </c>
       <c r="L15" t="n">
-        <v>74769.14999999999</v>
+        <v>974332.62</v>
       </c>
       <c r="M15" t="n">
-        <v>74770.28999999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1141443.82</v>
-      </c>
-      <c r="C16" t="n">
-        <v>817670.3199999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1147997.1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>996313.21</v>
-      </c>
-      <c r="F16" t="n">
-        <v>996763.59</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1005670.03</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1006887.64</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1004917.93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1008482.15</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1004381.25</v>
-      </c>
-      <c r="L16" t="n">
-        <v>897229.86</v>
-      </c>
-      <c r="M16" t="n">
-        <v>897243.4300000001</v>
+        <v>1002248.86</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1004751.04</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1007847.87</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1053671.48</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1060333.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1060144.89</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1069832.29</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1086243.64</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1077727.59</v>
       </c>
     </row>
   </sheetData>
